--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -963,7 +963,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4457,8 +4457,8 @@
         <v>-1</v>
       </c>
       <c r="D151">
-        <f>162.05283+D2</f>
-        <v>163.06010645500001</v>
+        <f>-(162.05283+D2)</f>
+        <v>-163.06010645500001</v>
       </c>
       <c r="E151" s="13">
         <v>173</v>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -963,7 +963,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <f>-(162.05283+D2)</f>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -962,8 +962,8 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4457,8 +4457,8 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <f>-(162.05283+D2)</f>
-        <v>-163.06010645500001</v>
+        <f>-(162.05283-D2)</f>
+        <v>-161.04555354499999</v>
       </c>
       <c r="E151" s="13">
         <v>173</v>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>name</t>
   </si>
@@ -491,6 +491,18 @@
   </si>
   <si>
     <t>[M+H-Hexose-H2O]+</t>
+  </si>
+  <si>
+    <t>[M+H-Hexose-H2O-CH4]+</t>
+  </si>
+  <si>
+    <t>[M+H-Hexose-H2O-CH3OH]+</t>
+  </si>
+  <si>
+    <t>[M+H-Hexose-H2O-C2H4O]+</t>
+  </si>
+  <si>
+    <t>[M+H-Hexose-H2O-C2H4O2]+</t>
   </si>
 </sst>
 </file>
@@ -959,11 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4470,6 +4482,102 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="13">
+        <v>1</v>
+      </c>
+      <c r="C152" s="13">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <f>D151+D91-1.0073</f>
+        <v>-177.07687722499998</v>
+      </c>
+      <c r="E152" s="13">
+        <v>174</v>
+      </c>
+      <c r="F152" s="13">
+        <v>0</v>
+      </c>
+      <c r="G152" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="13">
+        <v>1</v>
+      </c>
+      <c r="C153" s="13">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <f>D151+D94-1.0073</f>
+        <v>-193.07179185499999</v>
+      </c>
+      <c r="E153" s="13">
+        <v>175</v>
+      </c>
+      <c r="F153" s="13">
+        <v>0</v>
+      </c>
+      <c r="G153" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" s="13">
+        <v>1</v>
+      </c>
+      <c r="C154" s="13">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <f>D151+D81-1.0073</f>
+        <v>-205.07179185499999</v>
+      </c>
+      <c r="E154" s="13">
+        <v>176</v>
+      </c>
+      <c r="F154" s="13">
+        <v>0</v>
+      </c>
+      <c r="G154" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="13">
+        <v>1</v>
+      </c>
+      <c r="C155" s="13">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <f>D151+D110-1.0073</f>
+        <v>-221.06670648999997</v>
+      </c>
+      <c r="E155" s="13">
+        <v>177</v>
+      </c>
+      <c r="F155" s="13">
+        <v>0</v>
+      </c>
+      <c r="G155" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmh331\Desktop\gits\common_mz\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmh331\Desktop\gits\commonMZ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="rules_jan_pos" sheetId="1" r:id="rId1"/>
@@ -974,17 +974,16 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125"/>
-    <col min="2" max="1025" width="9.1796875"/>
+    <col min="1" max="1" width="36.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>51</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>52</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>54</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>55</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>56</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>57</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>59</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>60</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>61</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>62</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>63</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>64</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>65</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>66</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>67</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>68</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>69</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>70</v>
       </c>
@@ -2482,13 +2481,13 @@
         <v>87</v>
       </c>
       <c r="F65" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13">
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>71</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>83</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>84</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>85</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>86</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>87</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>89</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>90</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>91</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>92</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>93</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>94</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>95</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>96</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>97</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>98</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>99</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>100</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>101</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>102</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>103</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>104</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>105</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>106</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>107</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>108</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>109</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>110</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>111</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>112</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>113</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>114</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>115</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>116</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>117</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>118</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>119</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>120</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>121</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>122</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>123</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>124</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>125</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>126</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>127</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>128</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>129</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>130</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>131</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>132</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>133</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>134</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>135</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>136</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>137</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>138</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>139</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>140</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>141</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>142</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>143</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>144</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>145</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>146</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>147</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>148</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>149</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>150</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>151</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>152</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>153</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>154</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>155</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>156</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>157</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>158</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>159</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>160</v>
       </c>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>[M+H-Hexose-H2O-C2H4O2]+</t>
+  </si>
+  <si>
+    <t>[M+H-(Hexose-H2O)2]+</t>
   </si>
 </sst>
 </file>
@@ -971,11 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,6 +4580,30 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="13">
+        <v>1</v>
+      </c>
+      <c r="C156" s="13">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <f>-(2*162.05283-D2)</f>
+        <v>-323.09838354499999</v>
+      </c>
+      <c r="E156" s="13">
+        <v>178</v>
+      </c>
+      <c r="F156" s="13">
+        <v>0</v>
+      </c>
+      <c r="G156" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmh331\Desktop\gits\commonMZ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45004E2D-EC05-4B01-9E64-2F9D713DE5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10650"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules_jan_pos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -506,12 +520,18 @@
   </si>
   <si>
     <t>[M+H-(Hexose-H2O)2]+</t>
+  </si>
+  <si>
+    <t>[M-H-acetyl]+</t>
+  </si>
+  <si>
+    <t>[M-H-CH3]+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,23 +629,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,20 +992,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125"/>
+    <col min="1" max="1" width="36.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1166,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +1212,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1235,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1258,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1281,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1304,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1350,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1373,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1377,7 +1396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1446,7 +1465,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1469,7 +1488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1534,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1538,7 +1557,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1561,7 +1580,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1584,7 +1603,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1653,7 +1672,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1695,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1699,7 +1718,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -1745,7 +1764,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1787,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +1810,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -1814,7 +1833,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1837,7 +1856,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
@@ -1860,7 +1879,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -1883,7 +1902,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
@@ -1906,7 +1925,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -1929,7 +1948,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
@@ -1952,7 +1971,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -1975,7 +1994,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
@@ -1998,7 +2017,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>51</v>
       </c>
@@ -2044,7 +2063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>52</v>
       </c>
@@ -2067,7 +2086,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>53</v>
       </c>
@@ -2090,7 +2109,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>54</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>55</v>
       </c>
@@ -2136,2471 +2155,2519 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <f>-$D$2*2+55.934938</f>
         <v>53.920385090000003</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51">
         <v>19</v>
       </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="10">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <f>-$D$2*2+55.934938</f>
         <v>53.920385090000003</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52">
         <v>20</v>
       </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53" s="10">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
         <f>-$D$2*2+55.934938</f>
         <v>53.920385090000003</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53">
         <v>21</v>
       </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="10">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>2</v>
       </c>
-      <c r="C54" s="10">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
         <f>-$D$2*2+26.98153863</f>
         <v>24.96698572</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54">
         <v>27</v>
       </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" s="10">
-        <v>1</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <f>-$D$2*2+26.98153863</f>
         <v>24.96698572</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55">
         <v>28</v>
       </c>
-      <c r="F55" s="10">
-        <v>0</v>
-      </c>
-      <c r="G55" s="10">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56">
         <v>4</v>
       </c>
-      <c r="C56" s="10">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
         <f>-$D$2*2+26.98153863</f>
         <v>24.96698572</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56">
         <v>29</v>
       </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="10">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="10">
-        <v>1</v>
-      </c>
-      <c r="C57" s="10">
-        <v>1</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
         <f>57.95862042+D2</f>
         <v>58.965896875000006</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57">
         <v>22</v>
       </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
-      <c r="G57" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="10">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
         <f>115.9172408+D2</f>
         <v>116.924517255</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58">
         <v>23</v>
       </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
         <f>73.93256012+D2</f>
         <v>74.939836575000001</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59">
         <v>24</v>
       </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="11">
-        <v>1</v>
-      </c>
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
         <v>41.038575999999999</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>25</v>
       </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="11">
-        <v>1</v>
-      </c>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
-      <c r="D61" s="12">
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11">
         <v>68.994720000000001</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>26</v>
       </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="11">
-        <v>1</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="12">
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11">
         <v>18.033850000000001</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>10</v>
       </c>
-      <c r="F62" s="11">
-        <v>1</v>
-      </c>
-      <c r="G62" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="13">
-        <v>1</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1</v>
-      </c>
-      <c r="D63" s="13">
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12">
         <v>-44.99820287</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <v>85</v>
       </c>
-      <c r="F63" s="13">
-        <v>0</v>
-      </c>
-      <c r="G63" s="13">
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="13">
-        <v>1</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1</v>
-      </c>
-      <c r="D64" s="13">
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1</v>
+      </c>
+      <c r="D64" s="12">
         <v>-16.019272650000001</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <v>86</v>
       </c>
-      <c r="F64" s="13">
-        <v>0</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="13">
-        <v>1</v>
-      </c>
-      <c r="C65" s="13">
-        <v>1</v>
-      </c>
-      <c r="D65" s="13">
+      <c r="B65" s="12">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12">
+        <v>1</v>
+      </c>
+      <c r="D65" s="12">
         <v>-17.00328824</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="12">
         <v>87</v>
       </c>
-      <c r="F65" s="13">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="F65" s="12">
+        <v>1</v>
+      </c>
+      <c r="G65" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="13">
-        <v>1</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1</v>
-      </c>
-      <c r="D66" s="13">
+      <c r="B66" s="12">
+        <v>1</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1</v>
+      </c>
+      <c r="D66" s="12">
         <v>-41.003287999999998</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <v>88</v>
       </c>
-      <c r="F66" s="13">
-        <v>0</v>
-      </c>
-      <c r="G66" s="13">
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="13">
-        <v>1</v>
-      </c>
-      <c r="C67" s="13">
-        <v>1</v>
-      </c>
-      <c r="D67" s="13">
+      <c r="B67" s="12">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12">
+        <v>1</v>
+      </c>
+      <c r="D67" s="12">
         <v>-42.982552800000001</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <v>89</v>
       </c>
-      <c r="F67" s="13">
-        <v>0</v>
-      </c>
-      <c r="G67" s="13">
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="13">
-        <v>1</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1</v>
-      </c>
-      <c r="D68" s="13">
+      <c r="B68" s="12">
+        <v>1</v>
+      </c>
+      <c r="C68" s="12">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12">
         <v>-60.009101909999998</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="12">
         <v>90</v>
       </c>
-      <c r="F68" s="13">
-        <v>0</v>
-      </c>
-      <c r="G68" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="F68" s="12">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="13">
-        <v>1</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1</v>
-      </c>
-      <c r="D69" s="13">
+      <c r="B69" s="12">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12">
+        <v>1</v>
+      </c>
+      <c r="D69" s="12">
         <v>-62.024751979999998</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="12">
         <v>91</v>
       </c>
-      <c r="F69" s="13">
-        <v>0</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="13">
-        <v>1</v>
-      </c>
-      <c r="C70" s="13">
-        <v>1</v>
-      </c>
-      <c r="D70" s="13">
+      <c r="B70" s="12">
+        <v>1</v>
+      </c>
+      <c r="C70" s="12">
+        <v>1</v>
+      </c>
+      <c r="D70" s="12">
         <v>-34.029837350000001</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <v>92</v>
       </c>
-      <c r="F70" s="13">
-        <v>0</v>
-      </c>
-      <c r="G70" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="13">
-        <v>1</v>
-      </c>
-      <c r="C71" s="13">
-        <v>1</v>
-      </c>
-      <c r="D71" s="13">
+      <c r="B71" s="12">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12">
+        <v>1</v>
+      </c>
+      <c r="D71" s="12">
         <v>-58.029837350000001</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <v>93</v>
       </c>
-      <c r="F71" s="13">
-        <v>0</v>
-      </c>
-      <c r="G71" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="13">
-        <v>1</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1</v>
-      </c>
-      <c r="D72" s="13">
+      <c r="B72" s="12">
+        <v>1</v>
+      </c>
+      <c r="C72" s="12">
+        <v>1</v>
+      </c>
+      <c r="D72" s="12">
         <v>-30.96479424</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="12">
         <v>94</v>
       </c>
-      <c r="F72" s="13">
-        <v>0</v>
-      </c>
-      <c r="G72" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="13">
-        <v>1</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1</v>
-      </c>
-      <c r="D73" s="13">
+      <c r="B73" s="12">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12">
+        <v>1</v>
+      </c>
+      <c r="D73" s="12">
         <v>-93.996822679999994</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <v>95</v>
       </c>
-      <c r="F73" s="13">
-        <v>0</v>
-      </c>
-      <c r="G73" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="13">
-        <v>1</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1</v>
-      </c>
-      <c r="D74" s="13">
+      <c r="B74" s="12">
+        <v>1</v>
+      </c>
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
         <v>-35.01385294</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="12">
         <v>96</v>
       </c>
-      <c r="F74" s="13">
-        <v>0</v>
-      </c>
-      <c r="G74" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="13">
-        <v>1</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1</v>
-      </c>
-      <c r="D75" s="13">
+      <c r="B75" s="12">
+        <v>1</v>
+      </c>
+      <c r="C75" s="12">
+        <v>1</v>
+      </c>
+      <c r="D75" s="12">
         <v>-13.00837361</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="12">
         <v>97</v>
       </c>
-      <c r="F75" s="13">
-        <v>0</v>
-      </c>
-      <c r="G75" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="13">
-        <v>1</v>
-      </c>
-      <c r="C76" s="13">
-        <v>1</v>
-      </c>
-      <c r="D76" s="13">
+      <c r="B76" s="12">
+        <v>1</v>
+      </c>
+      <c r="C76" s="12">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12">
         <v>-14.98763817</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="12">
         <v>98</v>
       </c>
-      <c r="F76" s="13">
-        <v>0</v>
-      </c>
-      <c r="G76" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="13">
-        <v>1</v>
-      </c>
-      <c r="C77" s="13">
-        <v>1</v>
-      </c>
-      <c r="D77" s="13">
+      <c r="B77" s="12">
+        <v>1</v>
+      </c>
+      <c r="C77" s="12">
+        <v>1</v>
+      </c>
+      <c r="D77" s="12">
         <v>-25.00837361</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="12">
         <v>99</v>
       </c>
-      <c r="F77" s="13">
-        <v>0</v>
-      </c>
-      <c r="G77" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="13">
-        <v>1</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13">
+      <c r="B78" s="12">
+        <v>1</v>
+      </c>
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12">
         <v>-27.024023679999999</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="12">
         <v>100</v>
       </c>
-      <c r="F78" s="13">
-        <v>0</v>
-      </c>
-      <c r="G78" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="13">
-        <v>1</v>
-      </c>
-      <c r="C79" s="13">
-        <v>1</v>
-      </c>
-      <c r="D79" s="13">
+      <c r="B79" s="12">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12">
+        <v>1</v>
+      </c>
+      <c r="D79" s="12">
         <v>-26.98763817</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="12">
         <v>101</v>
       </c>
-      <c r="F79" s="13">
-        <v>0</v>
-      </c>
-      <c r="G79" s="13">
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="13">
-        <v>1</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1</v>
-      </c>
-      <c r="D80" s="13">
+      <c r="B80" s="12">
+        <v>1</v>
+      </c>
+      <c r="C80" s="12">
+        <v>1</v>
+      </c>
+      <c r="D80" s="12">
         <v>-41.039673749999999</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="12">
         <v>102</v>
       </c>
-      <c r="F80" s="13">
-        <v>0</v>
-      </c>
-      <c r="G80" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="13">
-        <v>1</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1</v>
-      </c>
-      <c r="D81" s="13">
+      <c r="B81" s="12">
+        <v>1</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1</v>
+      </c>
+      <c r="D81" s="12">
         <v>-43.018938310000003</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="12">
         <v>103</v>
       </c>
-      <c r="F81" s="13">
-        <v>0</v>
-      </c>
-      <c r="G81" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="13">
-        <v>1</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1</v>
-      </c>
-      <c r="D82" s="13">
+      <c r="B82" s="12">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12">
         <v>-53.039673749999999</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="12">
         <v>104</v>
       </c>
-      <c r="F82" s="13">
-        <v>0</v>
-      </c>
-      <c r="G82" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="13">
-        <v>1</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1</v>
-      </c>
-      <c r="D83" s="13">
+      <c r="B83" s="12">
+        <v>1</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83" s="12">
         <v>-55.018938310000003</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="12">
         <v>105</v>
       </c>
-      <c r="F83" s="13">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="F83" s="12">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="13">
-        <v>1</v>
-      </c>
-      <c r="C84" s="13">
-        <v>1</v>
-      </c>
-      <c r="D84" s="13">
+      <c r="B84" s="12">
+        <v>1</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12">
         <v>-55.055323819999998</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="12">
         <v>106</v>
       </c>
-      <c r="F84" s="13">
-        <v>0</v>
-      </c>
-      <c r="G84" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="F84" s="12">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="13">
-        <v>1</v>
-      </c>
-      <c r="C85" s="13">
-        <v>1</v>
-      </c>
-      <c r="D85" s="13">
+      <c r="B85" s="12">
+        <v>1</v>
+      </c>
+      <c r="C85" s="12">
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
         <v>-67.055323819999998</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="12">
         <v>107</v>
       </c>
-      <c r="F85" s="13">
-        <v>0</v>
-      </c>
-      <c r="G85" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="13">
-        <v>1</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1</v>
-      </c>
-      <c r="D86" s="13">
+      <c r="B86" s="12">
+        <v>1</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="12">
         <v>-69.034588380000002</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="12">
         <v>108</v>
       </c>
-      <c r="F86" s="13">
-        <v>0</v>
-      </c>
-      <c r="G86" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="F86" s="12">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="13">
-        <v>1</v>
-      </c>
-      <c r="C87" s="13">
-        <v>1</v>
-      </c>
-      <c r="D87" s="13">
+      <c r="B87" s="12">
+        <v>1</v>
+      </c>
+      <c r="C87" s="12">
+        <v>1</v>
+      </c>
+      <c r="D87" s="12">
         <v>-69.070973890000005</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="12">
         <v>109</v>
       </c>
-      <c r="F87" s="13">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="F87" s="12">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="13">
-        <v>1</v>
-      </c>
-      <c r="C88" s="13">
-        <v>1</v>
-      </c>
-      <c r="D88" s="13">
+      <c r="B88" s="12">
+        <v>1</v>
+      </c>
+      <c r="C88" s="12">
+        <v>1</v>
+      </c>
+      <c r="D88" s="12">
         <v>-83.086623959999997</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="12">
         <v>110</v>
       </c>
-      <c r="F88" s="13">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="F88" s="12">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="13">
-        <v>1</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1</v>
-      </c>
-      <c r="D89" s="13">
+      <c r="B89" s="12">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12">
         <v>-87.045153080000006</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="12">
         <v>111</v>
       </c>
-      <c r="F89" s="13">
-        <v>0</v>
-      </c>
-      <c r="G89" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="13">
-        <v>1</v>
-      </c>
-      <c r="C90" s="13">
-        <v>1</v>
-      </c>
-      <c r="D90" s="13">
+      <c r="B90" s="12">
+        <v>1</v>
+      </c>
+      <c r="C90" s="12">
+        <v>1</v>
+      </c>
+      <c r="D90" s="12">
         <v>-63.008767570000003</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="12">
         <v>112</v>
       </c>
-      <c r="F90" s="13">
-        <v>0</v>
-      </c>
-      <c r="G90" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+      <c r="F90" s="12">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="13">
-        <v>1</v>
-      </c>
-      <c r="C91" s="13">
-        <v>1</v>
-      </c>
-      <c r="D91" s="13">
+      <c r="B91" s="12">
+        <v>1</v>
+      </c>
+      <c r="C91" s="12">
+        <v>1</v>
+      </c>
+      <c r="D91" s="12">
         <v>-15.024023680000001</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="12">
         <v>113</v>
       </c>
-      <c r="F91" s="13">
-        <v>0</v>
-      </c>
-      <c r="G91" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="F91" s="12">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="13">
-        <v>1</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1</v>
-      </c>
-      <c r="D92" s="13">
+      <c r="B92" s="12">
+        <v>1</v>
+      </c>
+      <c r="C92" s="12">
+        <v>1</v>
+      </c>
+      <c r="D92" s="12">
         <v>-29.00328824</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="12">
         <v>114</v>
       </c>
-      <c r="F92" s="13">
-        <v>0</v>
-      </c>
-      <c r="G92" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="F92" s="12">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="13">
-        <v>1</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1</v>
-      </c>
-      <c r="D93" s="13">
+      <c r="B93" s="12">
+        <v>1</v>
+      </c>
+      <c r="C93" s="12">
+        <v>1</v>
+      </c>
+      <c r="D93" s="12">
         <v>-29.039673749999999</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="12">
         <v>115</v>
       </c>
-      <c r="F93" s="13">
-        <v>0</v>
-      </c>
-      <c r="G93" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+      <c r="F93" s="12">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="13">
-        <v>1</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1</v>
-      </c>
-      <c r="D94" s="13">
+      <c r="B94" s="12">
+        <v>1</v>
+      </c>
+      <c r="C94" s="12">
+        <v>1</v>
+      </c>
+      <c r="D94" s="12">
         <v>-31.018938309999999</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="12">
         <v>116</v>
       </c>
-      <c r="F94" s="13">
-        <v>0</v>
-      </c>
-      <c r="G94" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+      <c r="F94" s="12">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="13">
-        <v>1</v>
-      </c>
-      <c r="C95" s="13">
-        <v>1</v>
-      </c>
-      <c r="D95" s="13">
+      <c r="B95" s="12">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12">
+        <v>1</v>
+      </c>
+      <c r="D95" s="12">
         <v>-39.024023679999999</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="12">
         <v>117</v>
       </c>
-      <c r="F95" s="13">
-        <v>0</v>
-      </c>
-      <c r="G95" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="F95" s="12">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="13">
-        <v>1</v>
-      </c>
-      <c r="C96" s="13">
-        <v>1</v>
-      </c>
-      <c r="D96" s="13">
+      <c r="B96" s="12">
+        <v>1</v>
+      </c>
+      <c r="C96" s="12">
+        <v>1</v>
+      </c>
+      <c r="D96" s="12">
         <v>-57.034588380000002</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="12">
         <v>118</v>
       </c>
-      <c r="F96" s="13">
-        <v>0</v>
-      </c>
-      <c r="G96" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="F96" s="12">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="13">
-        <v>1</v>
-      </c>
-      <c r="C97" s="13">
-        <v>1</v>
-      </c>
-      <c r="D97" s="13">
+      <c r="B97" s="12">
+        <v>1</v>
+      </c>
+      <c r="C97" s="12">
+        <v>1</v>
+      </c>
+      <c r="D97" s="12">
         <f>-86.03677947+D2</f>
         <v>-85.029503015000003</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="12">
         <v>119</v>
       </c>
-      <c r="F97" s="13">
-        <v>0</v>
-      </c>
-      <c r="G97" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+      <c r="F97" s="12">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="13">
-        <v>1</v>
-      </c>
-      <c r="C98" s="13">
-        <v>1</v>
-      </c>
-      <c r="D98" s="13">
+      <c r="B98" s="12">
+        <v>1</v>
+      </c>
+      <c r="C98" s="12">
+        <v>1</v>
+      </c>
+      <c r="D98" s="12">
         <f>-79.95681459+D2</f>
         <v>-78.949538134999997</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="12">
         <v>120</v>
       </c>
-      <c r="F98" s="13">
-        <v>0</v>
-      </c>
-      <c r="G98" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+      <c r="F98" s="12">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="13">
-        <v>1</v>
-      </c>
-      <c r="C99" s="13">
-        <v>1</v>
-      </c>
-      <c r="D99" s="13">
+      <c r="B99" s="12">
+        <v>1</v>
+      </c>
+      <c r="C99" s="12">
+        <v>1</v>
+      </c>
+      <c r="D99" s="12">
         <f>-97.96737929+D2</f>
         <v>-96.960102835000001</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="12">
         <v>121</v>
       </c>
-      <c r="F99" s="13">
-        <v>0</v>
-      </c>
-      <c r="G99" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="13">
-        <v>1</v>
-      </c>
-      <c r="C100" s="13">
-        <v>1</v>
-      </c>
-      <c r="D100" s="13">
+      <c r="B100" s="12">
+        <v>1</v>
+      </c>
+      <c r="C100" s="12">
+        <v>1</v>
+      </c>
+      <c r="D100" s="12">
         <f>-114.9939284+D2</f>
         <v>-113.98665194500001</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="12">
         <v>122</v>
       </c>
-      <c r="F100" s="13">
-        <v>0</v>
-      </c>
-      <c r="G100" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="13">
-        <v>1</v>
-      </c>
-      <c r="C101" s="13">
-        <v>1</v>
-      </c>
-      <c r="D101" s="13">
+      <c r="B101" s="12">
+        <v>1</v>
+      </c>
+      <c r="C101" s="12">
+        <v>1</v>
+      </c>
+      <c r="D101" s="12">
         <f>-57.05784925+D2</f>
         <v>-56.050572794999994</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="12">
         <v>123</v>
       </c>
-      <c r="F101" s="13">
-        <v>0</v>
-      </c>
-      <c r="G101" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="13">
-        <v>1</v>
-      </c>
-      <c r="C102" s="13">
-        <v>1</v>
-      </c>
-      <c r="D102" s="13">
+      <c r="B102" s="12">
+        <v>1</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1</v>
+      </c>
+      <c r="D102" s="12">
         <f>-62.00039396+D2</f>
         <v>-60.993117504999994</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="12">
         <v>124</v>
       </c>
-      <c r="F102" s="13">
-        <v>0</v>
-      </c>
-      <c r="G102" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="13">
-        <v>1</v>
-      </c>
-      <c r="C103" s="13">
-        <v>1</v>
-      </c>
-      <c r="D103" s="13">
+      <c r="B103" s="12">
+        <v>1</v>
+      </c>
+      <c r="C103" s="12">
+        <v>1</v>
+      </c>
+      <c r="D103" s="12">
         <f>-80.04734417+D2</f>
         <v>-79.040067715000006</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="12">
         <v>125</v>
       </c>
-      <c r="F103" s="13">
-        <v>0</v>
-      </c>
-      <c r="G103" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+      <c r="F103" s="12">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="13">
-        <v>1</v>
-      </c>
-      <c r="C104" s="13">
-        <v>1</v>
-      </c>
-      <c r="D104" s="13">
+      <c r="B104" s="12">
+        <v>1</v>
+      </c>
+      <c r="C104" s="12">
+        <v>1</v>
+      </c>
+      <c r="D104" s="12">
         <f>-73.01637837+D2</f>
         <v>-72.009101915000002</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="12">
         <v>126</v>
       </c>
-      <c r="F104" s="13">
-        <v>0</v>
-      </c>
-      <c r="G104" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+      <c r="F104" s="12">
+        <v>0</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="13">
-        <v>1</v>
-      </c>
-      <c r="C105" s="13">
-        <v>1</v>
-      </c>
-      <c r="D105" s="13">
+      <c r="B105" s="12">
+        <v>1</v>
+      </c>
+      <c r="C105" s="12">
+        <v>1</v>
+      </c>
+      <c r="D105" s="12">
         <f>-87.03202844+D2</f>
         <v>-86.024751985000009</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="12">
         <v>127</v>
       </c>
-      <c r="F105" s="13">
-        <v>0</v>
-      </c>
-      <c r="G105" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="13">
-        <v>1</v>
-      </c>
-      <c r="C106" s="13">
-        <v>1</v>
-      </c>
-      <c r="D106" s="13">
+      <c r="B106" s="12">
+        <v>1</v>
+      </c>
+      <c r="C106" s="12">
+        <v>1</v>
+      </c>
+      <c r="D106" s="12">
         <f>-118.0418648+D2</f>
         <v>-117.034588345</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="12">
         <v>128</v>
       </c>
-      <c r="F106" s="13">
-        <v>0</v>
-      </c>
-      <c r="G106" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="13">
-        <v>1</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1</v>
-      </c>
-      <c r="D107" s="13">
+      <c r="B107" s="12">
+        <v>1</v>
+      </c>
+      <c r="C107" s="12">
+        <v>1</v>
+      </c>
+      <c r="D107" s="12">
         <f>-135.0684139+D2</f>
         <v>-134.06113744499999</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="12">
         <v>129</v>
       </c>
-      <c r="F107" s="13">
-        <v>0</v>
-      </c>
-      <c r="G107" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="13">
-        <v>1</v>
-      </c>
-      <c r="C108" s="13">
-        <v>1</v>
-      </c>
-      <c r="D108" s="13">
+      <c r="B108" s="12">
+        <v>1</v>
+      </c>
+      <c r="C108" s="12">
+        <v>1</v>
+      </c>
+      <c r="D108" s="12">
         <f>-136.0524295+D2</f>
         <v>-135.04515304499998</v>
       </c>
-      <c r="E108" s="13">
+      <c r="E108" s="12">
         <v>130</v>
       </c>
-      <c r="F108" s="13">
-        <v>0</v>
-      </c>
-      <c r="G108" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+      <c r="F108" s="12">
+        <v>0</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="13">
-        <v>1</v>
-      </c>
-      <c r="C109" s="13">
-        <v>1</v>
-      </c>
-      <c r="D109" s="13">
+      <c r="B109" s="12">
+        <v>1</v>
+      </c>
+      <c r="C109" s="12">
+        <v>1</v>
+      </c>
+      <c r="D109" s="12">
         <f>-58.00547933+D2</f>
         <v>-56.998202874999997</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="12">
         <v>131</v>
       </c>
-      <c r="F109" s="13">
-        <v>0</v>
-      </c>
-      <c r="G109" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
+      <c r="F109" s="12">
+        <v>0</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="13">
-        <v>1</v>
-      </c>
-      <c r="C110" s="13">
-        <v>1</v>
-      </c>
-      <c r="D110" s="13">
+      <c r="B110" s="12">
+        <v>1</v>
+      </c>
+      <c r="C110" s="12">
+        <v>1</v>
+      </c>
+      <c r="D110" s="12">
         <f>-60.0211294+D2</f>
         <v>-59.013852944999996</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="12">
         <v>132</v>
       </c>
-      <c r="F110" s="13">
-        <v>0</v>
-      </c>
-      <c r="G110" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="13">
-        <v>1</v>
-      </c>
-      <c r="C111" s="13">
-        <v>1</v>
-      </c>
-      <c r="D111" s="13">
+      <c r="B111" s="12">
+        <v>1</v>
+      </c>
+      <c r="C111" s="12">
+        <v>1</v>
+      </c>
+      <c r="D111" s="12">
         <f>-84.05751491+D2</f>
         <v>-83.050238454999999</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="12">
         <v>133</v>
       </c>
-      <c r="F111" s="13">
-        <v>0</v>
-      </c>
-      <c r="G111" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
+      <c r="F111" s="12">
+        <v>0</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="13">
-        <v>1</v>
-      </c>
-      <c r="C112" s="13">
-        <v>1</v>
-      </c>
-      <c r="D112" s="13">
+      <c r="B112" s="12">
+        <v>1</v>
+      </c>
+      <c r="C112" s="12">
+        <v>1</v>
+      </c>
+      <c r="D112" s="12">
         <v>-90.019666611999995</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="12">
         <v>134</v>
       </c>
-      <c r="F112" s="13">
-        <v>0</v>
-      </c>
-      <c r="G112" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="F112" s="12">
+        <v>0</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="13">
-        <v>1</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1</v>
-      </c>
-      <c r="D113" s="13">
+      <c r="B113" s="12">
+        <v>1</v>
+      </c>
+      <c r="C113" s="12">
+        <v>1</v>
+      </c>
+      <c r="D113" s="12">
         <v>-95.046215719000003</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="12">
         <v>135</v>
       </c>
-      <c r="F113" s="13">
-        <v>0</v>
-      </c>
-      <c r="G113" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+      <c r="F113" s="12">
+        <v>0</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="13">
-        <v>1</v>
-      </c>
-      <c r="C114" s="13">
-        <v>1</v>
-      </c>
-      <c r="D114" s="13">
+      <c r="B114" s="12">
+        <v>1</v>
+      </c>
+      <c r="C114" s="12">
+        <v>1</v>
+      </c>
+      <c r="D114" s="12">
         <v>-116.035316682</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="12">
         <v>136</v>
       </c>
-      <c r="F114" s="13">
-        <v>0</v>
-      </c>
-      <c r="G114" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+      <c r="F114" s="12">
+        <v>0</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="13">
-        <v>1</v>
-      </c>
-      <c r="C115" s="13">
-        <v>1</v>
-      </c>
-      <c r="D115" s="13">
+      <c r="B115" s="12">
+        <v>1</v>
+      </c>
+      <c r="C115" s="12">
+        <v>1</v>
+      </c>
+      <c r="D115" s="12">
         <v>-128.071702192</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="12">
         <v>137</v>
       </c>
-      <c r="F115" s="13">
-        <v>0</v>
-      </c>
-      <c r="G115" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+      <c r="F115" s="12">
+        <v>0</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="13">
-        <v>1</v>
-      </c>
-      <c r="C116" s="13">
-        <v>1</v>
-      </c>
-      <c r="D116" s="13">
+      <c r="B116" s="12">
+        <v>1</v>
+      </c>
+      <c r="C116" s="12">
+        <v>1</v>
+      </c>
+      <c r="D116" s="12">
         <v>-91.003682205000004</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="12">
         <v>138</v>
       </c>
-      <c r="F116" s="13">
-        <v>0</v>
-      </c>
-      <c r="G116" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="13">
-        <v>1</v>
-      </c>
-      <c r="C117" s="13">
-        <v>1</v>
-      </c>
-      <c r="D117" s="13">
+      <c r="B117" s="12">
+        <v>1</v>
+      </c>
+      <c r="C117" s="12">
+        <v>1</v>
+      </c>
+      <c r="D117" s="12">
         <v>-71.013852944999996</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="12">
         <v>139</v>
       </c>
-      <c r="F117" s="13">
-        <v>0</v>
-      </c>
-      <c r="G117" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
+      <c r="F117" s="12">
+        <v>0</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="13">
-        <v>1</v>
-      </c>
-      <c r="C118" s="13">
-        <v>1</v>
-      </c>
-      <c r="D118" s="13">
+      <c r="B118" s="12">
+        <v>1</v>
+      </c>
+      <c r="C118" s="12">
+        <v>1</v>
+      </c>
+      <c r="D118" s="12">
         <v>-73.029503015000003</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="12">
         <v>140</v>
       </c>
-      <c r="F118" s="13">
-        <v>0</v>
-      </c>
-      <c r="G118" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="13">
-        <v>1</v>
-      </c>
-      <c r="C119" s="13">
-        <v>1</v>
-      </c>
-      <c r="D119" s="13">
+      <c r="B119" s="12">
+        <v>1</v>
+      </c>
+      <c r="C119" s="12">
+        <v>1</v>
+      </c>
+      <c r="D119" s="12">
         <v>-52.040402051999997</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="12">
         <v>141</v>
       </c>
-      <c r="F119" s="13">
-        <v>0</v>
-      </c>
-      <c r="G119" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="13">
-        <v>1</v>
-      </c>
-      <c r="C120" s="13">
-        <v>1</v>
-      </c>
-      <c r="D120" s="13">
+      <c r="B120" s="12">
+        <v>1</v>
+      </c>
+      <c r="C120" s="12">
+        <v>1</v>
+      </c>
+      <c r="D120" s="12">
         <v>-75.008767574999993</v>
       </c>
-      <c r="E120" s="13">
+      <c r="E120" s="12">
         <v>142</v>
       </c>
-      <c r="F120" s="13">
-        <v>0</v>
-      </c>
-      <c r="G120" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="13">
-        <v>1</v>
-      </c>
-      <c r="C121" s="13">
-        <v>1</v>
-      </c>
-      <c r="D121" s="13">
+      <c r="B121" s="12">
+        <v>1</v>
+      </c>
+      <c r="C121" s="12">
+        <v>1</v>
+      </c>
+      <c r="D121" s="12">
         <v>-97.065888525000005</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="12">
         <v>143</v>
       </c>
-      <c r="F121" s="13">
-        <v>0</v>
-      </c>
-      <c r="G121" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
+      <c r="F121" s="12">
+        <v>0</v>
+      </c>
+      <c r="G121" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="13">
-        <v>1</v>
-      </c>
-      <c r="C122" s="13">
-        <v>1</v>
-      </c>
-      <c r="D122" s="13">
+      <c r="B122" s="12">
+        <v>1</v>
+      </c>
+      <c r="C122" s="12">
+        <v>1</v>
+      </c>
+      <c r="D122" s="12">
         <v>-73.077121899000005</v>
       </c>
-      <c r="E122" s="13">
+      <c r="E122" s="12">
         <v>144</v>
       </c>
-      <c r="F122" s="13">
-        <v>0</v>
-      </c>
-      <c r="G122" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
+      <c r="F122" s="12">
+        <v>0</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="13">
-        <v>1</v>
-      </c>
-      <c r="C123" s="13">
-        <v>1</v>
-      </c>
-      <c r="D123" s="13">
+      <c r="B123" s="12">
+        <v>1</v>
+      </c>
+      <c r="C123" s="12">
+        <v>1</v>
+      </c>
+      <c r="D123" s="12">
         <v>-91.040067715000006</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="12">
         <v>145</v>
       </c>
-      <c r="F123" s="13">
-        <v>0</v>
-      </c>
-      <c r="G123" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
+      <c r="F123" s="12">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="13">
-        <v>1</v>
-      </c>
-      <c r="C124" s="13">
-        <v>1</v>
-      </c>
-      <c r="D124" s="13">
+      <c r="B124" s="12">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12">
+        <v>1</v>
+      </c>
+      <c r="D124" s="12">
         <v>-89.060803155000002</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="12">
         <v>146</v>
       </c>
-      <c r="F124" s="13">
-        <v>0</v>
-      </c>
-      <c r="G124" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+      <c r="F124" s="12">
+        <v>0</v>
+      </c>
+      <c r="G124" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="13">
-        <v>1</v>
-      </c>
-      <c r="C125" s="13">
-        <v>1</v>
-      </c>
-      <c r="D125" s="13">
+      <c r="B125" s="12">
+        <v>1</v>
+      </c>
+      <c r="C125" s="12">
+        <v>1</v>
+      </c>
+      <c r="D125" s="12">
         <v>-156.06661682199999</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="12">
         <v>147</v>
       </c>
-      <c r="F125" s="13">
-        <v>0</v>
-      </c>
-      <c r="G125" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+      <c r="F125" s="12">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="13">
-        <v>1</v>
-      </c>
-      <c r="C126" s="13">
-        <v>1</v>
-      </c>
-      <c r="D126" s="13">
+      <c r="B126" s="12">
+        <v>1</v>
+      </c>
+      <c r="C126" s="12">
+        <v>1</v>
+      </c>
+      <c r="D126" s="12">
         <v>-71.050238454999999</v>
       </c>
-      <c r="E126" s="13">
+      <c r="E126" s="12">
         <v>148</v>
       </c>
-      <c r="F126" s="13">
-        <v>0</v>
-      </c>
-      <c r="G126" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
+      <c r="F126" s="12">
+        <v>0</v>
+      </c>
+      <c r="G126" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="13">
-        <v>1</v>
-      </c>
-      <c r="C127" s="13">
-        <v>1</v>
-      </c>
-      <c r="D127" s="13">
+      <c r="B127" s="12">
+        <v>1</v>
+      </c>
+      <c r="C127" s="12">
+        <v>1</v>
+      </c>
+      <c r="D127" s="12">
         <v>-81.070973894999995</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="12">
         <v>149</v>
       </c>
-      <c r="F127" s="13">
-        <v>0</v>
-      </c>
-      <c r="G127" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
+      <c r="F127" s="12">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="13">
-        <v>1</v>
-      </c>
-      <c r="C128" s="13">
-        <v>1</v>
-      </c>
-      <c r="D128" s="13">
+      <c r="B128" s="12">
+        <v>1</v>
+      </c>
+      <c r="C128" s="12">
+        <v>1</v>
+      </c>
+      <c r="D128" s="12">
         <v>-88.076787562000007</v>
       </c>
-      <c r="E128" s="13">
+      <c r="E128" s="12">
         <v>150</v>
       </c>
-      <c r="F128" s="13">
-        <v>0</v>
-      </c>
-      <c r="G128" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+      <c r="F128" s="12">
+        <v>0</v>
+      </c>
+      <c r="G128" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="13">
-        <v>1</v>
-      </c>
-      <c r="C129" s="13">
-        <v>1</v>
-      </c>
-      <c r="D129" s="13">
+      <c r="B129" s="12">
+        <v>1</v>
+      </c>
+      <c r="C129" s="12">
+        <v>1</v>
+      </c>
+      <c r="D129" s="12">
         <v>-95.050238454999999</v>
       </c>
-      <c r="E129" s="13">
+      <c r="E129" s="12">
         <v>151</v>
       </c>
-      <c r="F129" s="13">
-        <v>0</v>
-      </c>
-      <c r="G129" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+      <c r="F129" s="12">
+        <v>0</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="13">
-        <v>1</v>
-      </c>
-      <c r="C130" s="13">
-        <v>1</v>
-      </c>
-      <c r="D130" s="13">
+      <c r="B130" s="12">
+        <v>1</v>
+      </c>
+      <c r="C130" s="12">
+        <v>1</v>
+      </c>
+      <c r="D130" s="12">
         <v>-123.081538595</v>
       </c>
-      <c r="E130" s="13">
+      <c r="E130" s="12">
         <v>152</v>
       </c>
-      <c r="F130" s="13">
-        <v>0</v>
-      </c>
-      <c r="G130" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="F130" s="12">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="13">
-        <v>1</v>
-      </c>
-      <c r="C131" s="13">
-        <v>1</v>
-      </c>
-      <c r="D131" s="13">
+      <c r="B131" s="12">
+        <v>1</v>
+      </c>
+      <c r="C131" s="12">
+        <v>1</v>
+      </c>
+      <c r="D131" s="12">
         <v>-109.06588852500001</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="12">
         <v>153</v>
       </c>
-      <c r="F131" s="13">
-        <v>0</v>
-      </c>
-      <c r="G131" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
+      <c r="F131" s="12">
+        <v>0</v>
+      </c>
+      <c r="G131" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="13">
-        <v>1</v>
-      </c>
-      <c r="C132" s="13">
-        <v>1</v>
-      </c>
-      <c r="D132" s="13">
+      <c r="B132" s="12">
+        <v>1</v>
+      </c>
+      <c r="C132" s="12">
+        <v>1</v>
+      </c>
+      <c r="D132" s="12">
         <v>-143.07136785500001</v>
       </c>
-      <c r="E132" s="13">
+      <c r="E132" s="12">
         <v>154</v>
       </c>
-      <c r="F132" s="13">
-        <v>0</v>
-      </c>
-      <c r="G132" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="F132" s="12">
+        <v>0</v>
+      </c>
+      <c r="G132" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="13">
-        <v>1</v>
-      </c>
-      <c r="C133" s="13">
-        <v>1</v>
-      </c>
-      <c r="D133" s="13">
+      <c r="B133" s="12">
+        <v>1</v>
+      </c>
+      <c r="C133" s="12">
+        <v>1</v>
+      </c>
+      <c r="D133" s="12">
         <v>-109.10227403499999</v>
       </c>
-      <c r="E133" s="13">
+      <c r="E133" s="12">
         <v>155</v>
       </c>
-      <c r="F133" s="13">
-        <v>0</v>
-      </c>
-      <c r="G133" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
+      <c r="F133" s="12">
+        <v>0</v>
+      </c>
+      <c r="G133" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="13">
-        <v>1</v>
-      </c>
-      <c r="C134" s="13">
-        <v>1</v>
-      </c>
-      <c r="D134" s="13">
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="12">
+        <v>1</v>
+      </c>
+      <c r="D134" s="12">
         <v>-94.050966751999994</v>
       </c>
-      <c r="E134" s="13">
+      <c r="E134" s="12">
         <v>156</v>
       </c>
-      <c r="F134" s="13">
-        <v>0</v>
-      </c>
-      <c r="G134" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
+      <c r="F134" s="12">
+        <v>0</v>
+      </c>
+      <c r="G134" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="13">
-        <v>1</v>
-      </c>
-      <c r="C135" s="13">
-        <v>1</v>
-      </c>
-      <c r="D135" s="13">
+      <c r="B135" s="12">
+        <v>1</v>
+      </c>
+      <c r="C135" s="12">
+        <v>1</v>
+      </c>
+      <c r="D135" s="12">
         <v>-46.066222861999996</v>
       </c>
-      <c r="E135" s="13">
+      <c r="E135" s="12">
         <v>157</v>
       </c>
-      <c r="F135" s="13">
-        <v>0</v>
-      </c>
-      <c r="G135" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+      <c r="F135" s="12">
+        <v>0</v>
+      </c>
+      <c r="G135" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="13">
-        <v>1</v>
-      </c>
-      <c r="C136" s="13">
-        <v>1</v>
-      </c>
-      <c r="D136" s="13">
+      <c r="B136" s="12">
+        <v>1</v>
+      </c>
+      <c r="C136" s="12">
+        <v>1</v>
+      </c>
+      <c r="D136" s="12">
         <v>-148.07678756199999</v>
       </c>
-      <c r="E136" s="13">
+      <c r="E136" s="12">
         <v>158</v>
       </c>
-      <c r="F136" s="13">
-        <v>0</v>
-      </c>
-      <c r="G136" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
+      <c r="F136" s="12">
+        <v>0</v>
+      </c>
+      <c r="G136" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="13">
-        <v>1</v>
-      </c>
-      <c r="C137" s="13">
-        <v>1</v>
-      </c>
-      <c r="D137" s="13">
+      <c r="B137" s="12">
+        <v>1</v>
+      </c>
+      <c r="C137" s="12">
+        <v>1</v>
+      </c>
+      <c r="D137" s="12">
         <v>-98.061137492</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="12">
         <v>159</v>
       </c>
-      <c r="F137" s="13">
-        <v>0</v>
-      </c>
-      <c r="G137" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
+      <c r="F137" s="12">
+        <v>0</v>
+      </c>
+      <c r="G137" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="13">
-        <v>1</v>
-      </c>
-      <c r="C138" s="13">
-        <v>1</v>
-      </c>
-      <c r="D138" s="13">
+      <c r="B138" s="12">
+        <v>1</v>
+      </c>
+      <c r="C138" s="12">
+        <v>1</v>
+      </c>
+      <c r="D138" s="12">
         <v>-58.066222861999996</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="12">
         <v>160</v>
       </c>
-      <c r="F138" s="13">
-        <v>0</v>
-      </c>
-      <c r="G138" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+      <c r="F138" s="12">
+        <v>0</v>
+      </c>
+      <c r="G138" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="13">
-        <v>1</v>
-      </c>
-      <c r="C139" s="13">
-        <v>1</v>
-      </c>
-      <c r="D139" s="13">
+      <c r="B139" s="12">
+        <v>1</v>
+      </c>
+      <c r="C139" s="12">
+        <v>1</v>
+      </c>
+      <c r="D139" s="12">
         <v>-118.087352262</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="12">
         <v>161</v>
       </c>
-      <c r="F139" s="13">
-        <v>0</v>
-      </c>
-      <c r="G139" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
+      <c r="G139" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="13">
-        <v>1</v>
-      </c>
-      <c r="C140" s="13">
-        <v>1</v>
-      </c>
-      <c r="D140" s="13">
+      <c r="B140" s="12">
+        <v>1</v>
+      </c>
+      <c r="C140" s="12">
+        <v>1</v>
+      </c>
+      <c r="D140" s="12">
         <v>-175.0248</v>
       </c>
-      <c r="E140" s="13">
+      <c r="E140" s="12">
         <v>162</v>
       </c>
-      <c r="F140" s="13">
-        <v>0</v>
-      </c>
-      <c r="G140" s="13">
+      <c r="F140" s="12">
+        <v>0</v>
+      </c>
+      <c r="G140" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="13">
-        <v>1</v>
-      </c>
-      <c r="C141" s="13">
-        <v>1</v>
-      </c>
-      <c r="D141" s="13">
+      <c r="B141" s="12">
+        <v>1</v>
+      </c>
+      <c r="C141" s="12">
+        <v>1</v>
+      </c>
+      <c r="D141" s="12">
         <v>-193.03540000000001</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E141" s="12">
         <v>163</v>
       </c>
-      <c r="F141" s="13">
-        <v>0</v>
-      </c>
-      <c r="G141" s="13">
+      <c r="F141" s="12">
+        <v>0</v>
+      </c>
+      <c r="G141" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="13">
-        <v>1</v>
-      </c>
-      <c r="C142" s="13">
-        <v>1</v>
-      </c>
-      <c r="D142" s="13">
+      <c r="B142" s="12">
+        <v>1</v>
+      </c>
+      <c r="C142" s="12">
+        <v>1</v>
+      </c>
+      <c r="D142" s="12">
         <v>-211.04589999999999</v>
       </c>
-      <c r="E142" s="13">
+      <c r="E142" s="12">
         <v>164</v>
       </c>
-      <c r="F142" s="13">
-        <v>0</v>
-      </c>
-      <c r="G142" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
+      <c r="F142" s="12">
+        <v>0</v>
+      </c>
+      <c r="G142" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="13">
-        <v>1</v>
-      </c>
-      <c r="C143" s="13">
-        <v>1</v>
-      </c>
-      <c r="D143" s="13">
+      <c r="B143" s="12">
+        <v>1</v>
+      </c>
+      <c r="C143" s="12">
+        <v>1</v>
+      </c>
+      <c r="D143" s="12">
         <v>-229.0565</v>
       </c>
-      <c r="E143" s="13">
+      <c r="E143" s="12">
         <v>165</v>
       </c>
-      <c r="F143" s="13">
-        <v>0</v>
-      </c>
-      <c r="G143" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
+      <c r="F143" s="12">
+        <v>0</v>
+      </c>
+      <c r="G143" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="13">
-        <v>1</v>
-      </c>
-      <c r="C144" s="13">
-        <v>1</v>
-      </c>
-      <c r="D144" s="13">
+      <c r="B144" s="12">
+        <v>1</v>
+      </c>
+      <c r="C144" s="12">
+        <v>1</v>
+      </c>
+      <c r="D144" s="12">
         <v>-257.0514</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="12">
         <v>166</v>
       </c>
-      <c r="F144" s="13">
-        <v>0</v>
-      </c>
-      <c r="G144" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+      <c r="F144" s="12">
+        <v>0</v>
+      </c>
+      <c r="G144" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="13">
-        <v>1</v>
-      </c>
-      <c r="C145" s="13">
-        <v>1</v>
-      </c>
-      <c r="D145" s="13">
+      <c r="B145" s="12">
+        <v>1</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1</v>
+      </c>
+      <c r="D145" s="12">
         <v>-53.024419999999999</v>
       </c>
-      <c r="E145" s="13">
+      <c r="E145" s="12">
         <v>167</v>
       </c>
-      <c r="F145" s="13">
-        <v>0</v>
-      </c>
-      <c r="G145" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+      <c r="F145" s="12">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="13">
-        <v>1</v>
-      </c>
-      <c r="C146" s="13">
-        <v>1</v>
-      </c>
-      <c r="D146" s="13">
+      <c r="B146" s="12">
+        <v>1</v>
+      </c>
+      <c r="C146" s="12">
+        <v>1</v>
+      </c>
+      <c r="D146" s="12">
         <v>-81.019329999999997</v>
       </c>
-      <c r="E146" s="13">
+      <c r="E146" s="12">
         <v>168</v>
       </c>
-      <c r="F146" s="13">
-        <v>0</v>
-      </c>
-      <c r="G146" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
+      <c r="F146" s="12">
+        <v>0</v>
+      </c>
+      <c r="G146" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="13">
-        <v>1</v>
-      </c>
-      <c r="C147" s="13">
-        <v>1</v>
-      </c>
-      <c r="D147" s="13">
+      <c r="B147" s="12">
+        <v>1</v>
+      </c>
+      <c r="C147" s="12">
+        <v>1</v>
+      </c>
+      <c r="D147" s="12">
         <v>-130.0874</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="12">
         <v>169</v>
       </c>
-      <c r="F147" s="13">
-        <v>0</v>
-      </c>
-      <c r="G147" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
+      <c r="F147" s="12">
+        <v>0</v>
+      </c>
+      <c r="G147" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="13">
-        <v>1</v>
-      </c>
-      <c r="C148" s="13">
-        <v>1</v>
-      </c>
-      <c r="D148" s="13">
+      <c r="B148" s="12">
+        <v>1</v>
+      </c>
+      <c r="C148" s="12">
+        <v>1</v>
+      </c>
+      <c r="D148" s="12">
         <v>-116.07170000000001</v>
       </c>
-      <c r="E148" s="13">
+      <c r="E148" s="12">
         <v>170</v>
       </c>
-      <c r="F148" s="13">
-        <v>0</v>
-      </c>
-      <c r="G148" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
+      <c r="F148" s="12">
+        <v>0</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="13">
-        <v>1</v>
-      </c>
-      <c r="C149" s="13">
-        <v>1</v>
-      </c>
-      <c r="D149" s="13">
+      <c r="B149" s="12">
+        <v>1</v>
+      </c>
+      <c r="C149" s="12">
+        <v>1</v>
+      </c>
+      <c r="D149" s="12">
         <v>-45.98827</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="12">
         <v>171</v>
       </c>
-      <c r="F149" s="13">
-        <v>0</v>
-      </c>
-      <c r="G149" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
+      <c r="F149" s="12">
+        <v>0</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="13">
-        <v>1</v>
-      </c>
-      <c r="C150" s="13">
-        <v>1</v>
-      </c>
-      <c r="D150" s="13">
+      <c r="B150" s="12">
+        <v>1</v>
+      </c>
+      <c r="C150" s="12">
+        <v>1</v>
+      </c>
+      <c r="D150" s="12">
         <v>-117.0346</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="12">
         <v>172</v>
       </c>
-      <c r="F150" s="13">
-        <v>0</v>
-      </c>
-      <c r="G150" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
+      <c r="G150" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="13">
-        <v>1</v>
-      </c>
-      <c r="C151" s="13">
+      <c r="B151" s="12">
+        <v>1</v>
+      </c>
+      <c r="C151" s="12">
         <v>1</v>
       </c>
       <c r="D151">
         <f>-(162.05283-D2)</f>
         <v>-161.04555354499999</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="12">
         <v>173</v>
       </c>
-      <c r="F151" s="13">
-        <v>0</v>
-      </c>
-      <c r="G151" s="13">
+      <c r="F151" s="12">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="13">
-        <v>1</v>
-      </c>
-      <c r="C152" s="13">
+      <c r="B152" s="12">
+        <v>1</v>
+      </c>
+      <c r="C152" s="12">
         <v>1</v>
       </c>
       <c r="D152">
         <f>D151+D91-1.0073</f>
         <v>-177.07687722499998</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="12">
         <v>174</v>
       </c>
-      <c r="F152" s="13">
-        <v>0</v>
-      </c>
-      <c r="G152" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
+      <c r="F152" s="12">
+        <v>0</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="13">
-        <v>1</v>
-      </c>
-      <c r="C153" s="13">
+      <c r="B153" s="12">
+        <v>1</v>
+      </c>
+      <c r="C153" s="12">
         <v>1</v>
       </c>
       <c r="D153">
         <f>D151+D94-1.0073</f>
         <v>-193.07179185499999</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="12">
         <v>175</v>
       </c>
-      <c r="F153" s="13">
-        <v>0</v>
-      </c>
-      <c r="G153" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
+      <c r="F153" s="12">
+        <v>0</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="13">
-        <v>1</v>
-      </c>
-      <c r="C154" s="13">
+      <c r="B154" s="12">
+        <v>1</v>
+      </c>
+      <c r="C154" s="12">
         <v>1</v>
       </c>
       <c r="D154">
         <f>D151+D81-1.0073</f>
         <v>-205.07179185499999</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="12">
         <v>176</v>
       </c>
-      <c r="F154" s="13">
-        <v>0</v>
-      </c>
-      <c r="G154" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
+      <c r="F154" s="12">
+        <v>0</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="13">
-        <v>1</v>
-      </c>
-      <c r="C155" s="13">
+      <c r="B155" s="12">
+        <v>1</v>
+      </c>
+      <c r="C155" s="12">
         <v>1</v>
       </c>
       <c r="D155">
         <f>D151+D110-1.0073</f>
         <v>-221.06670648999997</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="12">
         <v>177</v>
       </c>
-      <c r="F155" s="13">
-        <v>0</v>
-      </c>
-      <c r="G155" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
+      <c r="F155" s="12">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="13">
-        <v>1</v>
-      </c>
-      <c r="C156" s="13">
+      <c r="B156" s="12">
+        <v>1</v>
+      </c>
+      <c r="C156" s="12">
         <v>1</v>
       </c>
       <c r="D156">
         <f>-(2*162.05283-D2)</f>
         <v>-323.09838354499999</v>
       </c>
-      <c r="E156" s="13">
+      <c r="E156" s="12">
         <v>178</v>
       </c>
-      <c r="F156" s="13">
-        <v>0</v>
-      </c>
-      <c r="G156" s="13">
+      <c r="F156" s="12">
+        <v>0</v>
+      </c>
+      <c r="G156" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" s="12">
+        <v>1</v>
+      </c>
+      <c r="C157" s="12">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <f>-(60.02113-D2)</f>
+        <v>-59.013853544999996</v>
+      </c>
+      <c r="E157" s="12">
+        <v>179</v>
+      </c>
+      <c r="F157" s="12">
+        <v>0</v>
+      </c>
+      <c r="G157" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" s="12">
+        <v>1</v>
+      </c>
+      <c r="C158" s="12">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <f>-(15.02348-D2)</f>
+        <v>-14.016203545</v>
+      </c>
+      <c r="E158" s="12">
+        <v>180</v>
+      </c>
+      <c r="F158" s="12">
+        <v>0</v>
+      </c>
+      <c r="G158" s="12">
         <v>0.5</v>
       </c>
     </row>

--- a/inst/extdata/CAMERA_rules_pos.xlsx
+++ b/inst/extdata/CAMERA_rules_pos.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmh331\Desktop\gits\commonMZ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45004E2D-EC05-4B01-9E64-2F9D713DE5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825409B-BEB4-4CCB-A0A5-78FE4D7BD973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules_jan_pos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>name</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>[M-H-CH3]+</t>
+  </si>
+  <si>
+    <t>[M-H-H2O-acetyl]-</t>
   </si>
 </sst>
 </file>
@@ -993,19 +996,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625"/>
+    <col min="1" max="1" width="36.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>51</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>52</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>53</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>54</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>55</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>67</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>68</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>69</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>70</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>71</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>72</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>73</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>74</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>75</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>76</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>77</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>78</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>79</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>80</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>82</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>83</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>84</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>86</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>87</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>88</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>89</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>90</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>91</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>92</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>93</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>94</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>95</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>96</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>97</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>98</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>99</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>100</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>101</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>102</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>103</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>104</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>105</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>106</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>107</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>108</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>109</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>110</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>111</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>112</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>113</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>114</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>115</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>116</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>117</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>118</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>119</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>120</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>121</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>122</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>123</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>124</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>125</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>126</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>127</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>128</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>129</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>130</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>131</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>132</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>133</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>134</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>135</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>136</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>137</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>138</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>139</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>140</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>141</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>142</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>143</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>144</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>145</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>146</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>147</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>148</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>149</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>150</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>151</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>152</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>153</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>154</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>155</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>156</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>157</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>158</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>159</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>160</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>161</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>162</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>163</v>
       </c>
@@ -4668,6 +4671,30 @@
         <v>0</v>
       </c>
       <c r="G158" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" s="12">
+        <v>1</v>
+      </c>
+      <c r="C159" s="12">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <f>-(78.03169-D2)</f>
+        <v>-77.024413545000002</v>
+      </c>
+      <c r="E159" s="12">
+        <v>181</v>
+      </c>
+      <c r="F159" s="12">
+        <v>0</v>
+      </c>
+      <c r="G159" s="12">
         <v>0.5</v>
       </c>
     </row>
